--- a/adapterFPix2DTBTestProtocol_template.xlsx
+++ b/adapterFPix2DTBTestProtocol_template.xlsx
@@ -531,7 +531,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -602,7 +602,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1106,8 +1107,8 @@
   </sheetPr>
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1132,8 +1133,8 @@
       <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3">
-        <v>11</v>
+      <c r="B3" s="28">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18">
@@ -2570,7 +2571,7 @@
       <c r="B64" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="28"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="4" t="s">
         <v>46</v>
       </c>
@@ -2579,7 +2580,7 @@
       <c r="B65" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="28"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="4" t="s">
         <v>46</v>
       </c>

--- a/adapterFPix2DTBTestProtocol_template.xlsx
+++ b/adapterFPix2DTBTestProtocol_template.xlsx
@@ -575,9 +575,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -605,6 +602,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="155">
@@ -1107,8 +1107,8 @@
   </sheetPr>
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1133,7 +1133,7 @@
       <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>1</v>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1190,10 +1190,10 @@
       <c r="G11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="20" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="6" t="s">
@@ -1202,7 +1202,7 @@
       <c r="L11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1233,12 +1233,13 @@
       <c r="J12" t="s">
         <v>14</v>
       </c>
+      <c r="K12" s="12"/>
       <c r="L12" s="9" t="str">
-        <f>IF(K12&lt;K$28,"ok","NOK")</f>
+        <f t="shared" ref="L12:L27" si="0">IF(K12&lt;K$28,"ok","NOK")</f>
         <v>ok</v>
       </c>
       <c r="O12">
-        <f>IF(G12="NOK",1,0)</f>
+        <f t="shared" ref="O12:O45" si="1">IF(G12="NOK",1,0)</f>
         <v>1</v>
       </c>
       <c r="P12">
@@ -1273,16 +1274,17 @@
       <c r="J13" t="s">
         <v>15</v>
       </c>
+      <c r="K13" s="12"/>
       <c r="L13" s="9" t="str">
-        <f>IF(K13&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O13">
-        <f>IF(G13="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:P27" si="0">IF(L13="NOK",1,0)</f>
+        <f t="shared" ref="P13:P27" si="2">IF(L13="NOK",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1314,16 +1316,17 @@
       <c r="J14" t="s">
         <v>10</v>
       </c>
+      <c r="K14" s="12"/>
       <c r="L14" s="9" t="str">
-        <f>IF(K14&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O14">
-        <f>IF(G14="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1355,16 +1358,17 @@
       <c r="J15" t="s">
         <v>10</v>
       </c>
+      <c r="K15" s="12"/>
       <c r="L15" s="9" t="str">
-        <f>IF(K15&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O15">
-        <f>IF(G15="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1395,16 +1399,17 @@
       <c r="J16" t="s">
         <v>16</v>
       </c>
+      <c r="K16" s="12"/>
       <c r="L16" s="9" t="str">
-        <f>IF(K16&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O16">
-        <f>IF(G16="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1435,16 +1440,17 @@
       <c r="J17" t="s">
         <v>17</v>
       </c>
+      <c r="K17" s="12"/>
       <c r="L17" s="9" t="str">
-        <f>IF(K17&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O17">
-        <f>IF(G17="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1475,16 +1481,17 @@
       <c r="J18" t="s">
         <v>18</v>
       </c>
+      <c r="K18" s="12"/>
       <c r="L18" s="9" t="str">
-        <f>IF(K18&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O18">
-        <f>IF(G18="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1515,16 +1522,17 @@
       <c r="J19" t="s">
         <v>19</v>
       </c>
+      <c r="K19" s="12"/>
       <c r="L19" s="9" t="str">
-        <f>IF(K19&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O19">
-        <f>IF(G19="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1546,7 +1554,7 @@
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="5" t="str">
-        <f t="shared" ref="G20:G25" si="1">IF(F20="∞","ok","NOK")</f>
+        <f t="shared" ref="G20:G25" si="3">IF(F20="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
       <c r="I20">
@@ -1555,16 +1563,17 @@
       <c r="J20" t="s">
         <v>20</v>
       </c>
+      <c r="K20" s="12"/>
       <c r="L20" s="9" t="str">
-        <f>IF(K20&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O20">
-        <f>IF(G20="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1586,7 +1595,7 @@
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="I21">
@@ -1595,16 +1604,17 @@
       <c r="J21" t="s">
         <v>21</v>
       </c>
+      <c r="K21" s="12"/>
       <c r="L21" s="9" t="str">
-        <f>IF(K21&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O21">
-        <f>IF(G21="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1626,7 +1636,7 @@
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="I22">
@@ -1635,16 +1645,17 @@
       <c r="J22" t="s">
         <v>22</v>
       </c>
+      <c r="K22" s="12"/>
       <c r="L22" s="9" t="str">
-        <f>IF(K22&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O22">
-        <f>IF(G22="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1666,7 +1677,7 @@
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="I23">
@@ -1675,16 +1686,17 @@
       <c r="J23" t="s">
         <v>23</v>
       </c>
+      <c r="K23" s="12"/>
       <c r="L23" s="9" t="str">
-        <f>IF(K23&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O23">
-        <f>IF(G23="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1706,7 +1718,7 @@
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="I24">
@@ -1715,16 +1727,17 @@
       <c r="J24" t="s">
         <v>11</v>
       </c>
+      <c r="K24" s="12"/>
       <c r="L24" s="9" t="str">
-        <f>IF(K24&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O24">
-        <f>IF(G24="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1746,7 +1759,7 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="I25">
@@ -1755,16 +1768,17 @@
       <c r="J25" t="s">
         <v>11</v>
       </c>
+      <c r="K25" s="12"/>
       <c r="L25" s="9" t="str">
-        <f>IF(K25&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O25">
-        <f>IF(G25="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1796,16 +1810,17 @@
       <c r="J26" t="s">
         <v>12</v>
       </c>
+      <c r="K26" s="12"/>
       <c r="L26" s="9" t="str">
-        <f>IF(K26&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O26">
-        <f>IF(G26="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1836,16 +1851,17 @@
       <c r="J27" t="s">
         <v>13</v>
       </c>
+      <c r="K27" s="12"/>
       <c r="L27" s="9" t="str">
-        <f>IF(K27&lt;K$28,"ok","NOK")</f>
+        <f t="shared" si="0"/>
         <v>ok</v>
       </c>
       <c r="O27">
-        <f>IF(G27="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1874,11 +1890,11 @@
       <c r="I28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="19">
         <v>1</v>
       </c>
       <c r="O28">
-        <f>IF(G28="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1906,7 +1922,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29">
-        <f>IF(G29="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1932,16 +1948,16 @@
         <f>IF(ABS(F30-D30)&lt;=E30,"ok","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
       <c r="O30">
-        <f>IF(G30="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1966,13 +1982,13 @@
         <f>IF(F31="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
       <c r="O31">
-        <f>IF(G31="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1999,7 +2015,7 @@
         <v>NOK</v>
       </c>
       <c r="O32">
-        <f>IF(G32="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2024,10 +2040,10 @@
         <f>IF(F33="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="20" t="s">
         <v>57</v>
       </c>
       <c r="K33" s="6" t="s">
@@ -2037,7 +2053,7 @@
         <v>8</v>
       </c>
       <c r="O33">
-        <f>IF(G33="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2060,7 +2076,7 @@
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="5" t="str">
-        <f t="shared" ref="G34:G40" si="2">IF(ABS(F34-D34)&lt;=E34,"ok","NOK")</f>
+        <f t="shared" ref="G34:G40" si="4">IF(ABS(F34-D34)&lt;=E34,"ok","NOK")</f>
         <v>NOK</v>
       </c>
       <c r="I34">
@@ -2069,16 +2085,17 @@
       <c r="J34" t="s">
         <v>9</v>
       </c>
+      <c r="K34" s="12"/>
       <c r="L34" s="9" t="str">
         <f>IF(K34&lt;K$42,"ok","NOK")</f>
         <v>ok</v>
       </c>
       <c r="O34">
-        <f>IF(G34="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P34">
-        <f t="shared" ref="P34:P41" si="3">IF(L34="NOK",1,0)</f>
+        <f t="shared" ref="P34:P41" si="5">IF(L34="NOK",1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2101,7 +2118,7 @@
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="I35">
@@ -2110,16 +2127,17 @@
       <c r="J35" t="s">
         <v>9</v>
       </c>
+      <c r="K35" s="12"/>
       <c r="L35" s="9" t="str">
-        <f t="shared" ref="L35:L41" si="4">IF(K35&lt;K$42,"ok","NOK")</f>
+        <f t="shared" ref="L35:L41" si="6">IF(K35&lt;K$42,"ok","NOK")</f>
         <v>ok</v>
       </c>
       <c r="O35">
-        <f>IF(G35="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2142,7 +2160,7 @@
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="I36">
@@ -2151,16 +2169,17 @@
       <c r="J36" t="s">
         <v>10</v>
       </c>
+      <c r="K36" s="12"/>
       <c r="L36" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="O36">
-        <f>IF(G36="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2184,7 +2203,7 @@
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="I37">
@@ -2193,16 +2212,17 @@
       <c r="J37" t="s">
         <v>9</v>
       </c>
+      <c r="K37" s="12"/>
       <c r="L37" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="O37">
-        <f>IF(G37="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2226,7 +2246,7 @@
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="I38">
@@ -2235,16 +2255,17 @@
       <c r="J38" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="K38" s="12"/>
       <c r="L38" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="O38">
-        <f>IF(G38="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2268,7 +2289,7 @@
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="I39">
@@ -2277,16 +2298,17 @@
       <c r="J39" t="s">
         <v>11</v>
       </c>
+      <c r="K39" s="12"/>
       <c r="L39" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="O39">
-        <f>IF(G39="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2309,7 +2331,7 @@
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="I40">
@@ -2318,16 +2340,17 @@
       <c r="J40" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="K40" s="12"/>
       <c r="L40" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="O40">
-        <f>IF(G40="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2358,16 +2381,17 @@
       <c r="J41" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="K41" s="12"/>
       <c r="L41" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>ok</v>
       </c>
       <c r="O41">
-        <f>IF(G41="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2399,7 +2423,7 @@
         <v>0.5</v>
       </c>
       <c r="O42">
-        <f>IF(G42="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2425,7 +2449,7 @@
         <v>NOK</v>
       </c>
       <c r="O43">
-        <f>IF(G43="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2450,14 +2474,14 @@
         <f>IF(F44="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
       <c r="O44">
-        <f>IF(G44="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2482,14 +2506,14 @@
         <f>IF(F45="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
       <c r="O45">
-        <f>IF(G45="NOK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2527,7 +2551,7 @@
       <c r="A54" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2571,7 +2595,7 @@
       <c r="B64" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="29"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="4" t="s">
         <v>46</v>
       </c>
@@ -2580,7 +2604,7 @@
       <c r="B65" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="29"/>
+      <c r="C65" s="28"/>
       <c r="D65" s="4" t="s">
         <v>46</v>
       </c>
@@ -2589,7 +2613,7 @@
       <c r="B66" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="26">
+      <c r="C66" s="25">
         <f>C65-C64</f>
         <v>0</v>
       </c>
@@ -2602,14 +2626,14 @@
       <c r="F66" s="5">
         <v>0.01</v>
       </c>
-      <c r="G66" s="27" t="s">
+      <c r="G66" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="C67" s="26"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="4"/>
-      <c r="G67" s="27"/>
+      <c r="G67" s="26"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
@@ -2663,7 +2687,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="24" t="str">
+      <c r="C77" s="23" t="str">
         <f>IF(AND(B47="PASS",B54="PASS",B68="PASS",D72="y",D73="y",D74="y"),"ACCEPTED","REJECTED")</f>
         <v>REJECTED</v>
       </c>

--- a/adapterFPix2DTBTestProtocol_template.xlsx
+++ b/adapterFPix2DTBTestProtocol_template.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="33520" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$80</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="81">
-  <si>
-    <t>FPix to DTB adapter v2.1 test protocol</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="99">
   <si>
     <t>Test all connections listed in the table below and record the values observed. Use the test points on the adapter board.</t>
   </si>
@@ -171,9 +168,6 @@
     <t>S/N</t>
   </si>
   <si>
-    <t>Frank Meier</t>
-  </si>
-  <si>
     <t>Tester:</t>
   </si>
   <si>
@@ -228,9 +222,6 @@
     <t>Disregard, structure to get overall PASS</t>
   </si>
   <si>
-    <t>4. Other test</t>
-  </si>
-  <si>
     <t>Final decision:</t>
   </si>
   <si>
@@ -265,6 +256,69 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>S/N of adapter card:</t>
+  </si>
+  <si>
+    <t>Test equipment:</t>
+  </si>
+  <si>
+    <t>Multimeter</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Fluke</t>
+  </si>
+  <si>
+    <t>DTB</t>
+  </si>
+  <si>
+    <t>HV supply</t>
+  </si>
+  <si>
+    <t>Keithley</t>
+  </si>
+  <si>
+    <t>Resistance if shorted:</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>(on Multimeter)</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>(on Keithley)</t>
+  </si>
+  <si>
+    <t>FPix to DTB adapter v2.1 test report</t>
+  </si>
+  <si>
+    <t>4. Other tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Keithley voltage to -100 V, current compliance 100 µA. </t>
+  </si>
+  <si>
+    <t>Turn voltage on. Measure value on flex cable end</t>
+  </si>
+  <si>
+    <t>Voltage drop</t>
+  </si>
+  <si>
+    <t>NB: DTB has 102 kΩ internally in series</t>
+  </si>
+  <si>
+    <t>PSI</t>
   </si>
 </sst>
 </file>
@@ -374,7 +428,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -530,8 +584,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -565,14 +645,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -603,11 +683,25 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -685,6 +779,19 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -762,6 +869,19 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1105,10 +1225,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1124,403 +1244,210 @@
     <col min="12" max="12" width="4.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25">
+    <row r="1" spans="1:15" ht="25">
       <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="33"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:15" ht="18">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="F6" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="29"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="11" spans="1:15" ht="18">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="18">
-      <c r="A5" s="1" t="s">
+    <row r="15" spans="1:15">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="O16" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="O10" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="K17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="5" t="str">
-        <f>IF(F12="∞","ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="9" t="str">
-        <f t="shared" ref="L12:L27" si="0">IF(K12&lt;K$28,"ok","NOK")</f>
-        <v>ok</v>
-      </c>
-      <c r="O12">
-        <f t="shared" ref="O12:O45" si="1">IF(G12="NOK",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <f>IF(L12="NOK",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="5" t="str">
-        <f>IF(F13="∞","ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <f t="shared" ref="P13:P27" si="2">IF(L13="NOK",1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7">
-        <f>D14*0.001*1.414</f>
-        <v>2.828E-2</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="5" t="str">
-        <f>IF(ABS(F14-D14)&lt;=E14,"ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="7">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7">
-        <f>D15*0.001</f>
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="5" t="str">
-        <f>IF(ABS(F15-D15)&lt;=E15,"ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="5" t="str">
-        <f>IF(F16="∞","ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="5" t="str">
-        <f>IF(F17="∞","ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="O17" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="15"/>
       <c r="G18" s="5" t="str">
         <f>IF(F18="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K18" s="12"/>
       <c r="L18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L18:L33" si="0">IF(K18&lt;K$34,"ok","NOK")</f>
         <v>ok</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O18:O51" si="1">IF(G18="NOK",1,0)</f>
         <v>1</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
+        <f>IF(L18="NOK",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F19" s="15"/>
       <c r="G19" s="5" t="str">
         <f>IF(F19="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="9" t="str">
@@ -1532,36 +1459,37 @@
         <v>1</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P19:P33" si="2">IF(L19="NOK",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7">
+        <f>D20*0.001*1.414</f>
+        <v>2.828E-2</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="5" t="str">
+        <f>IF(ABS(F20-D20)&lt;=E20,"ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
         <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="5" t="str">
-        <f t="shared" ref="G20:G25" si="3">IF(F20="∞","ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I20">
-        <v>13</v>
-      </c>
-      <c r="J20" t="s">
-        <v>20</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="9" t="str">
@@ -1579,30 +1507,31 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7">
+        <v>10</v>
+      </c>
+      <c r="E21" s="7">
+        <f>D21*0.001</f>
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="5" t="str">
+        <f>IF(ABS(F21-D21)&lt;=E21,"ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
         <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>NOK</v>
-      </c>
-      <c r="I21">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="9" t="str">
@@ -1620,30 +1549,30 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F22" s="15"/>
       <c r="G22" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F22="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
       <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
         <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>22</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="9" t="str">
@@ -1661,30 +1590,30 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="15"/>
       <c r="G23" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F23="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
       <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
         <v>16</v>
-      </c>
-      <c r="J23" t="s">
-        <v>23</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="9" t="str">
@@ -1702,30 +1631,30 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F24" s="15"/>
       <c r="G24" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F24="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
       <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
         <v>17</v>
-      </c>
-      <c r="J24" t="s">
-        <v>11</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="9" t="str">
@@ -1743,30 +1672,30 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F25" s="15"/>
       <c r="G25" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F25="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
       <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
         <v>18</v>
-      </c>
-      <c r="J25" t="s">
-        <v>11</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="9" t="str">
@@ -1784,31 +1713,30 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="5">
-        <v>120</v>
-      </c>
-      <c r="E26" s="8">
-        <f>D26*0.05</f>
-        <v>6</v>
-      </c>
-      <c r="F26" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="15"/>
       <c r="G26" s="5" t="str">
-        <f>IF(ABS(F26-D26)&lt;=E26,"ok","NOK")</f>
+        <f t="shared" ref="G26:G31" si="3">IF(F26="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
       <c r="I26">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
         <v>19</v>
-      </c>
-      <c r="J26" t="s">
-        <v>12</v>
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="9" t="str">
@@ -1826,30 +1754,30 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F27" s="15"/>
       <c r="G27" s="5" t="str">
-        <f>IF(F27="∞","ok","NOK")</f>
+        <f t="shared" si="3"/>
         <v>NOK</v>
       </c>
       <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
         <v>20</v>
-      </c>
-      <c r="J27" t="s">
-        <v>13</v>
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="9" t="str">
@@ -1867,482 +1795,474 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="5">
-        <v>120</v>
-      </c>
-      <c r="E28" s="8">
-        <f>D28*0.05</f>
-        <v>6</v>
-      </c>
-      <c r="F28" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="15"/>
       <c r="G28" s="5" t="str">
-        <f>IF(ABS(F28-D28)&lt;=E28,"ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="19">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
+      </c>
+      <c r="I28">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F29" s="15"/>
       <c r="G29" s="5" t="str">
-        <f>IF(F29="∞","ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
       <c r="O29">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="5">
-        <v>91</v>
-      </c>
-      <c r="E30" s="5">
-        <f>D30*0.05</f>
-        <v>4.55</v>
-      </c>
-      <c r="F30" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="15"/>
       <c r="G30" s="5" t="str">
-        <f>IF(ABS(F30-D30)&lt;=E30,"ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
+      </c>
+      <c r="I30">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
       <c r="O30">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F31" s="15"/>
       <c r="G31" s="5" t="str">
-        <f>IF(F31="∞","ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+        <f t="shared" si="3"/>
+        <v>NOK</v>
+      </c>
+      <c r="I31">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
       <c r="O31">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" s="5">
-        <v>91</v>
-      </c>
-      <c r="E32" s="5">
+        <v>120</v>
+      </c>
+      <c r="E32" s="8">
         <f>D32*0.05</f>
-        <v>4.55</v>
-      </c>
-      <c r="F32" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="F32" s="16"/>
       <c r="G32" s="5" t="str">
         <f>IF(ABS(F32-D32)&lt;=E32,"ok","NOK")</f>
         <v>NOK</v>
       </c>
+      <c r="I32">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
+      </c>
       <c r="O32">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="F33" s="15"/>
       <c r="G33" s="5" t="str">
         <f>IF(F33="∞","ok","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="I33" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>8</v>
+      <c r="I33">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>ok</v>
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" s="5">
-        <v>91</v>
-      </c>
-      <c r="E34" s="5">
+        <v>120</v>
+      </c>
+      <c r="E34" s="8">
         <f>D34*0.05</f>
-        <v>4.55</v>
-      </c>
-      <c r="F34" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="F34" s="16"/>
       <c r="G34" s="5" t="str">
-        <f t="shared" ref="G34:G40" si="4">IF(ABS(F34-D34)&lt;=E34,"ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="9" t="str">
-        <f>IF(K34&lt;K$42,"ok","NOK")</f>
-        <v>ok</v>
+        <f>IF(ABS(F34-D34)&lt;=E34,"ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K34" s="19">
+        <v>1</v>
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="P34">
-        <f t="shared" ref="P34:P41" si="5">IF(L34="NOK",1,0)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="5">
-        <v>120</v>
-      </c>
-      <c r="E35" s="8">
-        <f>D35*0.05</f>
-        <v>6</v>
-      </c>
-      <c r="F35" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="15"/>
       <c r="G35" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="9" t="str">
-        <f t="shared" ref="L35:L41" si="6">IF(K35&lt;K$42,"ok","NOK")</f>
-        <v>ok</v>
-      </c>
+        <f>IF(F35="∞","ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
       <c r="O35">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="5">
-        <v>120</v>
-      </c>
-      <c r="E36" s="8">
+        <v>91</v>
+      </c>
+      <c r="E36" s="5">
         <f>D36*0.05</f>
-        <v>6</v>
-      </c>
-      <c r="F36" s="12"/>
+        <v>4.55</v>
+      </c>
+      <c r="F36" s="16"/>
       <c r="G36" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>ok</v>
-      </c>
+        <f>IF(ABS(F36-D36)&lt;=E36,"ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
       <c r="O36">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="5">
-        <f>2*39+91</f>
-        <v>169</v>
-      </c>
-      <c r="E37" s="8">
-        <f>SQRT((39*0.05)^2+(91*0.05)^2+(39*0.05)^2)</f>
-        <v>5.3204793017170928</v>
-      </c>
-      <c r="F37" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="15"/>
       <c r="G37" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I37">
-        <v>4</v>
-      </c>
-      <c r="J37" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>ok</v>
-      </c>
+        <f>IF(F37="∞","ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
       <c r="O37">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="5">
-        <f>2*39+91</f>
-        <v>169</v>
-      </c>
-      <c r="E38" s="8">
-        <f>SQRT((39*0.05)^2+(91*0.05)^2+(39*0.05)^2)</f>
-        <v>5.3204793017170928</v>
-      </c>
-      <c r="F38" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="E38" s="5">
+        <f>D38*0.05</f>
+        <v>4.55</v>
+      </c>
+      <c r="F38" s="16"/>
       <c r="G38" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I38">
-        <v>6</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>ok</v>
+        <f>IF(ABS(F38-D38)&lt;=E38,"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="5">
-        <f>2*39+91</f>
-        <v>169</v>
-      </c>
-      <c r="E39" s="8">
-        <f>SQRT((39*0.05)^2+(91*0.05)^2+(39*0.05)^2)</f>
-        <v>5.3204793017170928</v>
-      </c>
-      <c r="F39" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="15"/>
       <c r="G39" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>NOK</v>
-      </c>
-      <c r="I39">
+        <f>IF(F39="∞","ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J39" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>ok</v>
-      </c>
       <c r="O39">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="7">
-        <v>30</v>
-      </c>
-      <c r="E40" s="8">
-        <f>D40*0.001*SQRT(3)</f>
-        <v>5.1961524227066312E-2</v>
-      </c>
-      <c r="F40" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="D40" s="5">
+        <v>91</v>
+      </c>
+      <c r="E40" s="5">
+        <f>D40*0.05</f>
+        <v>4.55</v>
+      </c>
+      <c r="F40" s="16"/>
       <c r="G40" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G40:G46" si="4">IF(ABS(F40-D40)&lt;=E40,"ok","NOK")</f>
         <v>NOK</v>
       </c>
       <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
         <v>8</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(K40&lt;K$48,"ok","NOK")</f>
         <v>ok</v>
       </c>
       <c r="O40">
@@ -2350,40 +2270,41 @@
         <v>1</v>
       </c>
       <c r="P40">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P40:P47" si="5">IF(L40="NOK",1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="D41" s="5">
+        <v>120</v>
+      </c>
+      <c r="E41" s="8">
+        <f>D41*0.05</f>
+        <v>6</v>
+      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="5" t="str">
-        <f>IF(F41="∞","ok","NOK")</f>
+        <f t="shared" si="4"/>
         <v>NOK</v>
       </c>
       <c r="I41">
-        <v>9</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>8</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L41:L47" si="6">IF(K41&lt;K$48,"ok","NOK")</f>
         <v>ok</v>
       </c>
       <c r="O41">
@@ -2397,327 +2318,625 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="D42" s="5">
+        <v>120</v>
+      </c>
+      <c r="E42" s="8">
+        <f>D42*0.05</f>
+        <v>6</v>
+      </c>
+      <c r="F42" s="12"/>
       <c r="G42" s="5" t="str">
-        <f>IF(F42="∞","ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>NOK</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>ok</v>
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="D43" s="5">
+        <f>2*39+91</f>
+        <v>169</v>
+      </c>
+      <c r="E43" s="8">
+        <f>SQRT((39*0.05)^2+(91*0.05)^2+(39*0.05)^2)</f>
+        <v>5.3204793017170928</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="5" t="str">
-        <f>IF(F43="∞","ok","NOK")</f>
-        <v>NOK</v>
+        <f t="shared" si="4"/>
+        <v>NOK</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>ok</v>
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="D44" s="5">
+        <f>2*39+91</f>
+        <v>169</v>
+      </c>
+      <c r="E44" s="8">
+        <f>SQRT((39*0.05)^2+(91*0.05)^2+(39*0.05)^2)</f>
+        <v>5.3204793017170928</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="5" t="str">
-        <f>IF(F44="∞","ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
+        <f t="shared" si="4"/>
+        <v>NOK</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>ok</v>
+      </c>
       <c r="O44">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="D45" s="5">
+        <f>2*39+91</f>
+        <v>169</v>
+      </c>
+      <c r="E45" s="8">
+        <f>SQRT((39*0.05)^2+(91*0.05)^2+(39*0.05)^2)</f>
+        <v>5.3204793017170928</v>
+      </c>
+      <c r="F45" s="15"/>
       <c r="G45" s="5" t="str">
-        <f>IF(F45="∞","ok","NOK")</f>
-        <v>NOK</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
+        <f t="shared" si="4"/>
+        <v>NOK</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="12"/>
+      <c r="L45" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>ok</v>
+      </c>
       <c r="O45">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="7">
+        <v>30</v>
+      </c>
+      <c r="E46" s="8">
+        <f>D46*0.001*SQRT(3)</f>
+        <v>5.1961524227066312E-2</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>NOK</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>ok</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="14" t="str">
-        <f>IF(SUM(O12:O45,P12:P27,P34:P41)&gt;0,"FAIL","PASS")</f>
+        <v>9</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="5" t="str">
+        <f>IF(F47="∞","ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>ok</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="5" t="str">
+        <f>IF(F48="∞","ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="5" t="str">
+        <f>IF(F49="∞","ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="5" t="str">
+        <f>IF(F50="∞","ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="5" t="str">
+        <f>IF(F51="∞","ok","NOK")</f>
+        <v>NOK</v>
+      </c>
+      <c r="I51" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="14" t="str">
+        <f>IF(SUM(O18:O51,P18:P33,P40:P47)&gt;0,"FAIL","PASS")</f>
         <v>FAIL</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18">
-      <c r="A49" s="1" t="s">
+    <row r="55" spans="1:15" ht="18">
+      <c r="A55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="18">
-      <c r="A56" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="I57" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="5"/>
+      <c r="M57" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="I58" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="K58" s="5"/>
+      <c r="M58" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="I59" t="s">
+        <v>76</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="5"/>
+      <c r="M59" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="18">
+      <c r="A62" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+      <c r="J65" s="25"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="I66" t="s">
+        <v>87</v>
+      </c>
+      <c r="K66" s="28"/>
+      <c r="L66" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M66" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+      <c r="K67" s="28"/>
+      <c r="L67" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="B60" t="s">
+      <c r="M67" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+      <c r="K69" s="9">
+        <f>102000*K67*0.000001</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="B70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" t="s">
+      <c r="C70" s="28"/>
+      <c r="D70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="B71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="B62" t="s">
+      <c r="C71" s="28"/>
+      <c r="D71" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="B72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="28"/>
-      <c r="D64" s="4" t="s">
+      <c r="C72" s="25">
+        <f>C71-C70</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="B66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="25">
-        <f>C65-C64</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" s="5">
+      <c r="F72" s="5">
         <v>0.01</v>
       </c>
-      <c r="G66" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="C67" s="25"/>
-      <c r="D67" s="4"/>
-      <c r="G67" s="26"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="14" t="str">
-        <f>IF(C66&lt;=F66,"PASS","FAIL")</f>
+      <c r="G72" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="C73" s="25"/>
+      <c r="D73" s="17"/>
+      <c r="G73" s="26"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="C74" s="25"/>
+      <c r="D74" s="4"/>
+      <c r="G74" s="26"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="14" t="str">
+        <f>IF(C72&lt;=F72,"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="D72" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="D73" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="D74" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="B75" s="14"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="B76" s="14"/>
-    </row>
-    <row r="77" spans="1:7" ht="18">
-      <c r="A77" s="1" t="s">
-        <v>69</v>
-      </c>
+    <row r="77" spans="1:13">
       <c r="B77" s="14"/>
-      <c r="C77" s="23" t="str">
-        <f>IF(AND(B47="PASS",B54="PASS",B68="PASS",D72="y",D73="y",D74="y"),"ACCEPTED","REJECTED")</f>
+    </row>
+    <row r="78" spans="1:13" ht="18">
+      <c r="A78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="23" t="str">
+        <f>IF(AND(B53="PASS",B60="PASS",B75="PASS",M57="y",M58="y",M59="y"),"ACCEPTED","REJECTED")</f>
         <v>REJECTED</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="80" spans="1:13">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="27"/>
+      <c r="E80" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E79" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F79" s="15">
-        <v>41834</v>
-      </c>
+      <c r="F80" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I36:L36"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="C77:D77">
+  <conditionalFormatting sqref="C78:D78">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="REJECTED">
-      <formula>NOT(ISERROR(SEARCH("REJECTED",C77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("REJECTED",C78)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="54" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.43000000000000005" right="0.43000000000000005" top="0.51181102362204722" bottom="0.43000000000000005" header="0.43000000000000005" footer="0.43000000000000005"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/adapterFPix2DTBTestProtocol_template.xlsx
+++ b/adapterFPix2DTBTestProtocol_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="33520" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="100">
   <si>
     <t>Test all connections listed in the table below and record the values observed. Use the test points on the adapter board.</t>
   </si>
@@ -255,9 +255,6 @@
     <t>3) S/N sticker attached</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>S/N of adapter card:</t>
   </si>
   <si>
@@ -319,6 +316,12 @@
   </si>
   <si>
     <t>PSI</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Corrected</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -680,9 +683,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -693,6 +693,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1227,8 +1233,8 @@
   </sheetPr>
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1246,26 +1252,28 @@
   <sheetData>
     <row r="1" spans="1:15" ht="25">
       <c r="A1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="18">
       <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="33"/>
+        <v>77</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="32">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="B4" s="29"/>
+      <c r="B4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="18">
       <c r="A5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>47</v>
@@ -1273,43 +1281,51 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="32"/>
+        <v>79</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="31">
+        <v>23070432</v>
+      </c>
       <c r="F6" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" s="27"/>
+        <v>85</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0.1</v>
+      </c>
       <c r="I6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="32"/>
+        <v>82</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="31">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="31">
+        <v>1268080</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="21"/>
     </row>
     <row r="11" spans="1:15" ht="18">
@@ -1408,7 +1424,6 @@
       <c r="J18" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="12"/>
       <c r="L18" s="9" t="str">
         <f t="shared" ref="L18:L33" si="0">IF(K18&lt;K$34,"ok","NOK")</f>
         <v>ok</v>
@@ -1449,7 +1464,6 @@
       <c r="J19" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="12"/>
       <c r="L19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1491,7 +1505,6 @@
       <c r="J20" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="12"/>
       <c r="L20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1533,7 +1546,6 @@
       <c r="J21" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="12"/>
       <c r="L21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1574,7 +1586,6 @@
       <c r="J22" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="12"/>
       <c r="L22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1615,7 +1626,6 @@
       <c r="J23" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="12"/>
       <c r="L23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1656,7 +1666,6 @@
       <c r="J24" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="12"/>
       <c r="L24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1697,7 +1706,6 @@
       <c r="J25" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="12"/>
       <c r="L25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1738,7 +1746,6 @@
       <c r="J26" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="12"/>
       <c r="L26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1779,7 +1786,6 @@
       <c r="J27" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="12"/>
       <c r="L27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1820,7 +1826,6 @@
       <c r="J28" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="12"/>
       <c r="L28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1861,7 +1866,6 @@
       <c r="J29" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="12"/>
       <c r="L29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1902,7 +1906,6 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="12"/>
       <c r="L30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1943,7 +1946,6 @@
       <c r="J31" t="s">
         <v>10</v>
       </c>
-      <c r="K31" s="12"/>
       <c r="L31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -1985,7 +1987,6 @@
       <c r="J32" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="12"/>
       <c r="L32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -2026,7 +2027,6 @@
       <c r="J33" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="12"/>
       <c r="L33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ok</v>
@@ -2123,12 +2123,12 @@
         <f>IF(ABS(F36-D36)&lt;=E36,"ok","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36">
@@ -2260,7 +2260,6 @@
       <c r="J40" t="s">
         <v>8</v>
       </c>
-      <c r="K40" s="12"/>
       <c r="L40" s="9" t="str">
         <f>IF(K40&lt;K$48,"ok","NOK")</f>
         <v>ok</v>
@@ -2302,7 +2301,6 @@
       <c r="J41" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="12"/>
       <c r="L41" s="9" t="str">
         <f t="shared" ref="L41:L47" si="6">IF(K41&lt;K$48,"ok","NOK")</f>
         <v>ok</v>
@@ -2344,7 +2342,6 @@
       <c r="J42" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="12"/>
       <c r="L42" s="9" t="str">
         <f t="shared" si="6"/>
         <v>ok</v>
@@ -2387,7 +2384,6 @@
       <c r="J43" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="12"/>
       <c r="L43" s="9" t="str">
         <f t="shared" si="6"/>
         <v>ok</v>
@@ -2430,7 +2426,6 @@
       <c r="J44" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="12"/>
       <c r="L44" s="9" t="str">
         <f t="shared" si="6"/>
         <v>ok</v>
@@ -2473,7 +2468,6 @@
       <c r="J45" t="s">
         <v>10</v>
       </c>
-      <c r="K45" s="12"/>
       <c r="L45" s="9" t="str">
         <f t="shared" si="6"/>
         <v>ok</v>
@@ -2515,7 +2509,6 @@
       <c r="J46" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="12"/>
       <c r="L46" s="9" t="str">
         <f t="shared" si="6"/>
         <v>ok</v>
@@ -2556,7 +2549,6 @@
       <c r="J47" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="12"/>
       <c r="L47" s="9" t="str">
         <f t="shared" si="6"/>
         <v>ok</v>
@@ -2706,7 +2698,7 @@
         <v>37</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -2727,7 +2719,7 @@
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="5"/>
-      <c r="M57" s="32" t="s">
+      <c r="M57" s="31" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2743,7 +2735,7 @@
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="5"/>
-      <c r="M58" s="32" t="s">
+      <c r="M58" s="31" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2753,7 +2745,7 @@
       </c>
       <c r="J59" s="14"/>
       <c r="K59" s="5"/>
-      <c r="M59" s="32" t="s">
+      <c r="M59" s="31" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2762,7 +2754,7 @@
         <v>39</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18">
@@ -2778,7 +2770,7 @@
         <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2789,7 +2781,7 @@
         <v>44</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J65" s="25"/>
       <c r="K65" s="17"/>
@@ -2799,14 +2791,14 @@
         <v>68</v>
       </c>
       <c r="I66" t="s">
+        <v>86</v>
+      </c>
+      <c r="K66" s="33"/>
+      <c r="L66" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K66" s="28"/>
-      <c r="L66" s="17" t="s">
+      <c r="M66" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="M66" s="18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2814,14 +2806,14 @@
         <v>69</v>
       </c>
       <c r="I67" t="s">
+        <v>89</v>
+      </c>
+      <c r="K67" s="33"/>
+      <c r="L67" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M67" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="K67" s="28"/>
-      <c r="L67" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M67" s="18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -2831,33 +2823,33 @@
     </row>
     <row r="69" spans="1:13">
       <c r="I69" t="s">
-        <v>96</v>
-      </c>
-      <c r="K69" s="9">
+        <v>95</v>
+      </c>
+      <c r="K69" s="34">
         <f>102000*K67*0.000001</f>
         <v>0</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="B70" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="28"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I70" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="B71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="28"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="4" t="s">
         <v>45</v>
       </c>
@@ -2881,6 +2873,16 @@
       </c>
       <c r="G72" s="26" t="s">
         <v>45</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+      <c r="K72" s="19">
+        <f>K66+K69</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -2898,8 +2900,8 @@
         <v>39</v>
       </c>
       <c r="B75" s="14" t="str">
-        <f>IF(C72&lt;=F72,"PASS","FAIL")</f>
-        <v>PASS</v>
+        <f>IF(AND(C72&lt;=F72,ABS(K72-100)&lt;0.5),"PASS","FAIL")</f>
+        <v>FAIL</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -2923,7 +2925,7 @@
       <c r="E80" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="35"/>
+      <c r="F80" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/adapterFPix2DTBTestProtocol_template.xlsx
+++ b/adapterFPix2DTBTestProtocol_template.xlsx
@@ -1233,8 +1233,8 @@
   </sheetPr>
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1260,9 +1260,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="28"/>
-      <c r="C3" s="32">
-        <v>11</v>
-      </c>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="28"/>

--- a/adapterFPix2DTBTestProtocol_template.xlsx
+++ b/adapterFPix2DTBTestProtocol_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33520" windowHeight="20560" tabRatio="500"/>
+    <workbookView xWindow="16080" yWindow="0" windowWidth="15060" windowHeight="20520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="99">
   <si>
     <t>Test all connections listed in the table below and record the values observed. Use the test points on the adapter board.</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>PSI</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>Corrected</t>
@@ -700,11 +697,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="181">
@@ -1234,7 +1231,7 @@
   <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1285,15 +1282,11 @@
       <c r="C6" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="31">
-        <v>23070432</v>
-      </c>
+      <c r="D6" s="31"/>
       <c r="F6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="27">
-        <v>0.1</v>
-      </c>
+      <c r="H6" s="27"/>
       <c r="I6" t="s">
         <v>51</v>
       </c>
@@ -1306,9 +1299,7 @@
       <c r="C7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="31">
-        <v>26</v>
-      </c>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
@@ -1318,9 +1309,7 @@
       <c r="C8" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="31">
-        <v>1268080</v>
-      </c>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="28"/>
@@ -1422,9 +1411,10 @@
       <c r="J18" t="s">
         <v>13</v>
       </c>
+      <c r="K18" s="12"/>
       <c r="L18" s="9" t="str">
-        <f t="shared" ref="L18:L33" si="0">IF(K18&lt;K$34,"ok","NOK")</f>
-        <v>ok</v>
+        <f t="shared" ref="L18:L33" si="0">IF(AND(K18&lt;K$34,ISNUMBER(K18)),"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O18">
         <f t="shared" ref="O18:O51" si="1">IF(G18="NOK",1,0)</f>
@@ -1432,7 +1422,7 @@
       </c>
       <c r="P18">
         <f>IF(L18="NOK",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1462,9 +1452,10 @@
       <c r="J19" t="s">
         <v>14</v>
       </c>
+      <c r="K19" s="12"/>
       <c r="L19" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
@@ -1472,7 +1463,7 @@
       </c>
       <c r="P19">
         <f t="shared" ref="P19:P33" si="2">IF(L19="NOK",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1503,9 +1494,10 @@
       <c r="J20" t="s">
         <v>9</v>
       </c>
+      <c r="K20" s="12"/>
       <c r="L20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
@@ -1513,7 +1505,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1544,9 +1536,10 @@
       <c r="J21" t="s">
         <v>9</v>
       </c>
+      <c r="K21" s="12"/>
       <c r="L21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
@@ -1554,7 +1547,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1584,9 +1577,10 @@
       <c r="J22" t="s">
         <v>15</v>
       </c>
+      <c r="K22" s="12"/>
       <c r="L22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
@@ -1594,7 +1588,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1624,9 +1618,10 @@
       <c r="J23" t="s">
         <v>16</v>
       </c>
+      <c r="K23" s="12"/>
       <c r="L23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
@@ -1634,7 +1629,7 @@
       </c>
       <c r="P23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1664,9 +1659,10 @@
       <c r="J24" t="s">
         <v>17</v>
       </c>
+      <c r="K24" s="12"/>
       <c r="L24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
@@ -1674,7 +1670,7 @@
       </c>
       <c r="P24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1704,9 +1700,10 @@
       <c r="J25" t="s">
         <v>18</v>
       </c>
+      <c r="K25" s="12"/>
       <c r="L25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
@@ -1714,7 +1711,7 @@
       </c>
       <c r="P25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1744,9 +1741,10 @@
       <c r="J26" t="s">
         <v>19</v>
       </c>
+      <c r="K26" s="12"/>
       <c r="L26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
@@ -1754,7 +1752,7 @@
       </c>
       <c r="P26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1784,9 +1782,10 @@
       <c r="J27" t="s">
         <v>20</v>
       </c>
+      <c r="K27" s="12"/>
       <c r="L27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
@@ -1794,7 +1793,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1824,9 +1823,10 @@
       <c r="J28" t="s">
         <v>21</v>
       </c>
+      <c r="K28" s="12"/>
       <c r="L28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="P28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1864,9 +1864,10 @@
       <c r="J29" t="s">
         <v>22</v>
       </c>
+      <c r="K29" s="12"/>
       <c r="L29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
@@ -1874,7 +1875,7 @@
       </c>
       <c r="P29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1904,9 +1905,10 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
+      <c r="K30" s="12"/>
       <c r="L30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
@@ -1914,7 +1916,7 @@
       </c>
       <c r="P30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1944,9 +1946,10 @@
       <c r="J31" t="s">
         <v>10</v>
       </c>
+      <c r="K31" s="12"/>
       <c r="L31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
@@ -1954,7 +1957,7 @@
       </c>
       <c r="P31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1985,9 +1988,10 @@
       <c r="J32" t="s">
         <v>11</v>
       </c>
+      <c r="K32" s="12"/>
       <c r="L32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
@@ -1995,7 +1999,7 @@
       </c>
       <c r="P32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2025,9 +2029,10 @@
       <c r="J33" t="s">
         <v>12</v>
       </c>
+      <c r="K33" s="12"/>
       <c r="L33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>ok</v>
+        <v>NOK</v>
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
@@ -2035,7 +2040,7 @@
       </c>
       <c r="P33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2121,12 +2126,12 @@
         <f>IF(ABS(F36-D36)&lt;=E36,"ok","NOK")</f>
         <v>NOK</v>
       </c>
-      <c r="I36" s="35" t="s">
+      <c r="I36" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36">
@@ -2258,9 +2263,10 @@
       <c r="J40" t="s">
         <v>8</v>
       </c>
+      <c r="K40" s="12"/>
       <c r="L40" s="9" t="str">
-        <f>IF(K40&lt;K$48,"ok","NOK")</f>
-        <v>ok</v>
+        <f>IF(AND(K40&lt;K$48,ISNUMBER(K40)),"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
@@ -2268,7 +2274,7 @@
       </c>
       <c r="P40">
         <f t="shared" ref="P40:P47" si="5">IF(L40="NOK",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2299,9 +2305,10 @@
       <c r="J41" t="s">
         <v>8</v>
       </c>
+      <c r="K41" s="12"/>
       <c r="L41" s="9" t="str">
-        <f t="shared" ref="L41:L47" si="6">IF(K41&lt;K$48,"ok","NOK")</f>
-        <v>ok</v>
+        <f>IF(AND(K41&lt;K$48,ISNUMBER(K41)),"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
@@ -2309,7 +2316,7 @@
       </c>
       <c r="P41">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2340,9 +2347,10 @@
       <c r="J42" t="s">
         <v>9</v>
       </c>
+      <c r="K42" s="12"/>
       <c r="L42" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>ok</v>
+        <f>IF(AND(K42&lt;K$48,ISNUMBER(K42)),"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
@@ -2350,7 +2358,7 @@
       </c>
       <c r="P42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2382,9 +2390,10 @@
       <c r="J43" t="s">
         <v>8</v>
       </c>
+      <c r="K43" s="12"/>
       <c r="L43" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>ok</v>
+        <f>IF(AND(K43&lt;K$48,ISNUMBER(K43)),"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
@@ -2392,7 +2401,7 @@
       </c>
       <c r="P43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2424,9 +2433,10 @@
       <c r="J44" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="K44" s="12"/>
       <c r="L44" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>ok</v>
+        <f>IF(AND(K44&lt;K$48,ISNUMBER(K44)),"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
@@ -2434,7 +2444,7 @@
       </c>
       <c r="P44">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2466,9 +2476,10 @@
       <c r="J45" t="s">
         <v>10</v>
       </c>
+      <c r="K45" s="12"/>
       <c r="L45" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>ok</v>
+        <f>IF(AND(K45&lt;K$48,ISNUMBER(K45)),"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
@@ -2476,7 +2487,7 @@
       </c>
       <c r="P45">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2507,9 +2518,10 @@
       <c r="J46" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="K46" s="12"/>
       <c r="L46" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>ok</v>
+        <f>IF(AND(K46&lt;K$48,ISNUMBER(K46)),"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
@@ -2517,7 +2529,7 @@
       </c>
       <c r="P46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2547,9 +2559,10 @@
       <c r="J47" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="K47" s="12"/>
       <c r="L47" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>ok</v>
+        <f>IF(AND(K47&lt;K$48,ISNUMBER(K47)),"ok","NOK")</f>
+        <v>NOK</v>
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
@@ -2557,7 +2570,7 @@
       </c>
       <c r="P47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2751,9 +2764,7 @@
       <c r="A60" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="24" t="s">
-        <v>98</v>
-      </c>
+      <c r="B60" s="24"/>
     </row>
     <row r="62" spans="1:15" ht="18">
       <c r="A62" s="1" t="s">
@@ -2873,7 +2884,7 @@
         <v>45</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K72" s="19">
         <f>K66+K69</f>
@@ -2923,7 +2934,7 @@
       <c r="E80" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="36"/>
+      <c r="F80" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
